--- a/biology/Zoologie/Heliconius_erato/Heliconius_erato.xlsx
+++ b/biology/Zoologie/Heliconius_erato/Heliconius_erato.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Heliconius erato est une espèce de lépidoptère appartenant à la famille des Nymphalidae, à la sous-famille des Heliconiinae et au genre Heliconius.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un très grand papillon noir qui présente de fortes différences suivant les sous-espèces avec des ornementations variables. Tous présentent des ailes allongées et arrondies noires ou marron foncées avec des ornementations identiques sur les deux faces.
 Les antérieures sont barrées d'une bande rouge ou cuivre, ou orange ou de taches blanches.
@@ -519,8 +533,6 @@
 Heliconius erato présente pas d'irisé bleuté ce qui le différencie de Heliconius melpomene
 			accouplement
 			ponte sur une passiflore.
-Chenilles
-Les chenilles sont blanches avec des marques et des épines noires[1].
 </t>
         </is>
       </c>
@@ -546,15 +558,18 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole toute l'année.
-Plantes hôtes
-Les plantes hôtes sont des Passiflora ou passiflore, dont Passiflora coreacea et Passiflora talamancensis[2].
+          <t>Chenilles</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles sont blanches avec des marques et des épines noires.
 </t>
         </is>
       </c>
@@ -580,14 +595,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Écologie et distribution</t>
+          <t>Biologie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Il réside au Mexique, en Amérique centrale et dans presque toute l'Amérique du Sud, le bassin amazonien Panama, Costa Rica, Bolivie, Pérou, Équateur, Nicaragua Colombie, Venezuela, Surinam, Guyane française, Guyana et Bolivie, Brésil, Pérou, Paraguay et Argentine[2].
-Biotope
-Son habitat est la forêt tropicale et les deux versants des Andes.
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole toute l'année.
 </t>
         </is>
       </c>
@@ -613,18 +632,232 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes sont des Passiflora ou passiflore, dont Passiflora coreacea et Passiflora talamancensis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Heliconius_erato</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_erato</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside au Mexique, en Amérique centrale et dans presque toute l'Amérique du Sud, le bassin amazonien Panama, Costa Rica, Bolivie, Pérou, Équateur, Nicaragua Colombie, Venezuela, Surinam, Guyane française, Guyana et Bolivie, Brésil, Pérou, Paraguay et Argentine.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Heliconius_erato</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_erato</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son habitat est la forêt tropicale et les deux versants des Andes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Heliconius_erato</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_erato</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Heliconius erato a été décrite par le naturaliste suédois Carl von Linné en 1758 sous le nom initial de Papilio erato[3].
-Synonymie
-Papilio erato Linné, 1758 Protonyme
-Noms vernaculaires
-Il se nomme Crimson-patched Longwing ou Red Postman en anglais.
-Taxinomie
-Sous-espèces
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Heliconius erato a été décrite par le naturaliste suédois Carl von Linné en 1758 sous le nom initial de Papilio erato.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Heliconius_erato</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_erato</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Papilio erato Linné, 1758 Protonyme
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Heliconius_erato</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_erato</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il se nomme Crimson-patched Longwing ou Red Postman en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Heliconius_erato</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Heliconius_erato</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sous-espèces
 Heliconius erato erato (Linnaeus, 1764)
 Synonymie pour cette sous-espèce
 Papilio vesta (Cramer, 1777)
@@ -647,9 +880,9 @@
 Heliconius erato amalfreda (Riffarth, 1901)
 Synonymie pour cette sous-espèce
 Heliconia elimaea (Erichson, 1849)
-Heliconius cybele cybelina (Staudinger, 1897)[4]
-Heliconius vesta leda (Staudinger, 1897)[5]
-Heliconius phyllis amalfreda (Riffarth, 1900)[6]
+Heliconius cybele cybelina (Staudinger, 1897)
+Heliconius vesta leda (Staudinger, 1897)
+Heliconius phyllis amalfreda (Riffarth, 1900)
 Heliconius erato cybelinus helena (Riffarth, 1907)
 Heliconius erato erato cybelellus (Joicey &amp; Kaye, 1917)
 Heliconius melpomene pyritosa (Zikán, 1937)
@@ -657,7 +890,7 @@
 Heliconius heydei (Stammeshaus, 1962)
 Heliconius erato amazona (Staudinger, 1897)
 Synonymie pour cette sous-espèce
-Heliconius vesta amazona (Staudinger, 1897)[5]
+Heliconius vesta amazona (Staudinger, 1897)
 Heliconius philadelphus (Kirby, 1900)
 Heliconius androdaixa (Seitz, 1912)
 Heliconius erato amphitrite (Riffarth, 1901)
@@ -667,22 +900,22 @@
 Heliconius melpomene hyperplea (Dyar, 1913)
 Heliconius erato chestertonii (Hewitson, 1872)
 Synonymie pour cette sous-espèce
-Heliconius damysus (Hopffer, 1874)[7]
-Heliconius molina (Grose-Smith, 1898)[8]
-Heliconius hydara nocturna (Riffarth, 1900)[9]
+Heliconius damysus (Hopffer, 1874)
+Heliconius molina (Grose-Smith, 1898)
+Heliconius hydara nocturna (Riffarth, 1900)
 Heliconius erato extrema (Kaye, 1919)
 Heliconius erato colombina  (Staudinger, 1897)
 Synonymie pour cette sous-espèce
-Heliconius petiveranus colombina (Staudinger, 1897)[10]
-Heliconius hydra antigona (Riffarth, 1900)[9]
+Heliconius petiveranus colombina (Staudinger, 1897)
+Heliconius hydra antigona (Riffarth, 1900)
 Heliconius erato cyrbia (Godart, 1819)
 Synonymie pour cette sous-espèce
-Heliconius cyrbia diformata (Riffarth, 1900)[11]
+Heliconius cyrbia diformata (Riffarth, 1900)
 Heliconius cyrbia cyrbia bella (Riffarth, 1907)
-Heliconius erato demophoon (Ménétriés, 1855)[12]
+Heliconius erato demophoon (Ménétriés, 1855)
 Synonymie pour cette sous-espèce
 Heliconius demophoon Ménétriés, 1855 - protonyme
-Heliconius chiriquensis (Riffarth, 1900)[11]
+Heliconius chiriquensis (Riffarth, 1900)
 Heliconius erato dignus (Stichel, 1923)
 Synonymie pour cette sous-espèce
 Heliconius dignus discerpta (Stichel, 1923)
@@ -696,24 +929,24 @@
 Heliconius erato estrella palmata (Stichel, 1906)
 Heliconius erato estrella agnata (Stichel, 1906)
 Heliconius erato estrella  (Bates, 1862)
-Heliconius erato etylus (Salvin, 1871)[13]
-Heliconius erato favorinus (Hopffer, 1874)[14]
-Synonymie pour cette sous-espèce
-Heliconius amaryllis pseudamaryllis (Staudinger, 1897)[15]
+Heliconius erato etylus (Salvin, 1871)
+Heliconius erato favorinus (Hopffer, 1874)
+Synonymie pour cette sous-espèce
+Heliconius amaryllis pseudamaryllis (Staudinger, 1897)
 Heliconius erato eratophylla (Joicey &amp; Kaye, 1917)
 Heliconius favorinus pseudoanacreon (Neustetter, 1932)
 Heliconius erato fuscombei (Lamas, 1976)
-Heliconius erato guarica (Reakirt, 1868)[16]
+Heliconius erato guarica (Reakirt, 1868)
 Heliconius erato hydara (Hewitson, 1867)
 Heliconius erato lativitta (Butler, 1877)
 Heliconius erato lichyi (Brown &amp; Fernández, 1985)
 Heliconius erato magnifica  (Riffarth, 1900)
 Heliconius erato microlea (Kaye, 1907)
 Heliconius erato notabilis  (Salvin &amp; Godman, 1868)
-Heliconius erato petiverana (Doubleday, 1847)[17]
-Synonymie pour cette sous-espèce
-Heliconia mexicana (Boisduval, 1870)[18]
-Heliconius petiveranus (Godman &amp; Salvin, 1881) [19]
+Heliconius erato petiverana (Doubleday, 1847)
+Synonymie pour cette sous-espèce
+Heliconia mexicana (Boisduval, 1870)
+Heliconius petiveranus (Godman &amp; Salvin, 1881) 
 Heliconius erato petiveranus
 Heliconius petiverea (Riffarth, 1901)
 Heliconius erato phyllis (Fabricius, 1775)
@@ -723,7 +956,7 @@
 Heliconius phyllidis (Grose-Smith &amp; Kirby, 1892)
 Heliconius anacreon (Grose-Smith &amp; Kirby, 1892)
 Heliconius amatus (Staudinger, 1897)
-Heliconius phyllis artifex (Stichel, 1899)[20]
+Heliconius phyllis artifex (Stichel, 1899)
 Heliconius phyllis diffluens (Riffarth, 1907)
 Heliconius erato anacreon anaitis (Riffarth, 1907)
 Heliconius phyllis miletus (d'Almeida, 1928)
@@ -731,8 +964,8 @@
 Heliconius phyllis alicia (Schweizer &amp; Kay, 1941)
 Heliconius erato reductimacula (Bryk, 1953)
 Heliconius erato tobagoensis (Barcant, 1982)
-Heliconius erato venus (Staudinger, 1882) [21]
-Heliconius erato venustus (Salvi, 1871) [22]
+Heliconius erato venus (Staudinger, 1882) 
+Heliconius erato venustus (Salvi, 1871) 
 			Heliconius erato phyllis ♂ (Mato Grosso, Brésil)
 </t>
         </is>
